--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.945699666666667</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N2">
-        <v>11.837099</v>
+        <v>0.651809</v>
       </c>
       <c r="O2">
-        <v>0.5217739053606055</v>
+        <v>0.03001200118140119</v>
       </c>
       <c r="P2">
-        <v>0.534749722327306</v>
+        <v>0.03035425223765216</v>
       </c>
       <c r="Q2">
-        <v>598.6655103998095</v>
+        <v>31.45702041624833</v>
       </c>
       <c r="R2">
-        <v>5387.989593598285</v>
+        <v>283.1131837462349</v>
       </c>
       <c r="S2">
-        <v>0.1409175374863879</v>
+        <v>0.007293055348261202</v>
       </c>
       <c r="T2">
-        <v>0.1488404462295216</v>
+        <v>0.007619302270802914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.179436</v>
+        <v>3.945699666666667</v>
       </c>
       <c r="N3">
-        <v>0.538308</v>
+        <v>11.837099</v>
       </c>
       <c r="O3">
-        <v>0.02372837022372263</v>
+        <v>0.545029340147747</v>
       </c>
       <c r="P3">
-        <v>0.02431846295503378</v>
+        <v>0.5512447493177606</v>
       </c>
       <c r="Q3">
-        <v>27.22511939558001</v>
+        <v>571.2714382773983</v>
       </c>
       <c r="R3">
-        <v>245.02607456022</v>
+        <v>5141.442944496584</v>
       </c>
       <c r="S3">
-        <v>0.006408414576005702</v>
+        <v>0.1324446550597603</v>
       </c>
       <c r="T3">
-        <v>0.006768719508802058</v>
+        <v>0.1383694230831715</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5504869999999999</v>
+        <v>2.656530666666667</v>
       </c>
       <c r="N4">
-        <v>1.100974</v>
+        <v>7.969592</v>
       </c>
       <c r="O4">
-        <v>0.0727956449059631</v>
+        <v>0.3669532094820499</v>
       </c>
       <c r="P4">
-        <v>0.04973731661698388</v>
+        <v>0.3711378729032198</v>
       </c>
       <c r="Q4">
-        <v>83.52323001356834</v>
+        <v>384.6212897538533</v>
       </c>
       <c r="R4">
-        <v>501.13938008141</v>
+        <v>3461.59160778468</v>
       </c>
       <c r="S4">
-        <v>0.0196602070638091</v>
+        <v>0.0891713301888432</v>
       </c>
       <c r="T4">
-        <v>0.01384371808051122</v>
+        <v>0.09316031294899695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.886464333333334</v>
+        <v>0.2448785</v>
       </c>
       <c r="N5">
-        <v>8.659393000000001</v>
+        <v>0.489757</v>
       </c>
       <c r="O5">
-        <v>0.3817020795097085</v>
+        <v>0.03382567821846469</v>
       </c>
       <c r="P5">
-        <v>0.3911944981006764</v>
+        <v>0.02280761313997783</v>
       </c>
       <c r="Q5">
-        <v>437.9518943026107</v>
+        <v>35.4543185534425</v>
       </c>
       <c r="R5">
-        <v>3941.567048723496</v>
+        <v>212.725911320655</v>
       </c>
       <c r="S5">
-        <v>0.1030877867699565</v>
+        <v>0.008219796539013027</v>
       </c>
       <c r="T5">
-        <v>0.1088837660474747</v>
+        <v>0.005725000149187297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.24887100000001</v>
+        <v>144.783305</v>
       </c>
       <c r="H6">
-        <v>246.746613</v>
+        <v>434.349915</v>
       </c>
       <c r="I6">
-        <v>0.146403824289839</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J6">
-        <v>0.150882936320401</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.945699666666667</v>
+        <v>0.1750476666666667</v>
       </c>
       <c r="N6">
-        <v>11.837099</v>
+        <v>0.525143</v>
       </c>
       <c r="O6">
-        <v>0.5217739053606055</v>
+        <v>0.02417977097033727</v>
       </c>
       <c r="P6">
-        <v>0.534749722327306</v>
+        <v>0.02445551240138963</v>
       </c>
       <c r="Q6">
-        <v>324.5293428884097</v>
+        <v>25.34397971253833</v>
       </c>
       <c r="R6">
-        <v>2920.764085995687</v>
+        <v>228.095817412845</v>
       </c>
       <c r="S6">
-        <v>0.07638969515943718</v>
+        <v>0.005875796383222589</v>
       </c>
       <c r="T6">
-        <v>0.08068460830126302</v>
+        <v>0.006138643762814345</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.179436</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N7">
-        <v>0.538308</v>
+        <v>0.651809</v>
       </c>
       <c r="O7">
-        <v>0.02372837022372263</v>
+        <v>0.03001200118140119</v>
       </c>
       <c r="P7">
-        <v>0.02431846295503378</v>
+        <v>0.03035425223765216</v>
       </c>
       <c r="Q7">
-        <v>14.758408416756</v>
+        <v>17.87018478587967</v>
       </c>
       <c r="R7">
-        <v>132.825675750804</v>
+        <v>160.831663072917</v>
       </c>
       <c r="S7">
-        <v>0.003473924144918135</v>
+        <v>0.004143057575146497</v>
       </c>
       <c r="T7">
-        <v>0.003669241097454393</v>
+        <v>0.004328392763110885</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
         <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5504869999999999</v>
+        <v>3.945699666666667</v>
       </c>
       <c r="N8">
-        <v>1.100974</v>
+        <v>11.837099</v>
       </c>
       <c r="O8">
-        <v>0.0727956449059631</v>
+        <v>0.545029340147747</v>
       </c>
       <c r="P8">
-        <v>0.04973731661698388</v>
+        <v>0.5512447493177606</v>
       </c>
       <c r="Q8">
-        <v>45.276934250177</v>
+        <v>324.5293428884096</v>
       </c>
       <c r="R8">
-        <v>271.661605501062</v>
+        <v>2920.764085995687</v>
       </c>
       <c r="S8">
-        <v>0.01065756080587814</v>
+        <v>0.07523949911662622</v>
       </c>
       <c r="T8">
-        <v>0.007504512375868</v>
+        <v>0.07860525652120037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
         <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.886464333333334</v>
+        <v>2.656530666666667</v>
       </c>
       <c r="N9">
-        <v>8.659393000000001</v>
+        <v>7.969592</v>
       </c>
       <c r="O9">
-        <v>0.3817020795097085</v>
+        <v>0.3669532094820499</v>
       </c>
       <c r="P9">
-        <v>0.3911944981006764</v>
+        <v>0.3711378729032198</v>
       </c>
       <c r="Q9">
-        <v>237.4084325984344</v>
+        <v>218.4966481102107</v>
       </c>
       <c r="R9">
-        <v>2136.67589338591</v>
+        <v>1966.469832991896</v>
       </c>
       <c r="S9">
-        <v>0.05588264417960552</v>
+        <v>0.05065667780964504</v>
       </c>
       <c r="T9">
-        <v>0.05902457454581557</v>
+        <v>0.05292274936023652</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.444321</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
-        <v>370.332963</v>
+        <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.2197321429647646</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J10">
-        <v>0.2264546783208506</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>3.945699666666667</v>
+        <v>0.2448785</v>
       </c>
       <c r="N10">
-        <v>11.837099</v>
+        <v>0.489757</v>
       </c>
       <c r="O10">
-        <v>0.5217739053606055</v>
+        <v>0.03382567821846469</v>
       </c>
       <c r="P10">
-        <v>0.534749722327306</v>
+        <v>0.02280761313997783</v>
       </c>
       <c r="Q10">
-        <v>487.074216221593</v>
+        <v>20.1409801571735</v>
       </c>
       <c r="R10">
-        <v>4383.667945994337</v>
+        <v>120.845880943041</v>
       </c>
       <c r="S10">
-        <v>0.1146504983679801</v>
+        <v>0.004669523086128811</v>
       </c>
       <c r="T10">
-        <v>0.1210965763517943</v>
+        <v>0.003252272758557948</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>123.444321</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
-        <v>370.332963</v>
+        <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.2197321429647646</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J11">
-        <v>0.2264546783208506</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.179436</v>
+        <v>0.1750476666666667</v>
       </c>
       <c r="N11">
-        <v>0.538308</v>
+        <v>0.525143</v>
       </c>
       <c r="O11">
-        <v>0.02372837022372263</v>
+        <v>0.02417977097033727</v>
       </c>
       <c r="P11">
-        <v>0.02431846295503378</v>
+        <v>0.02445551240138963</v>
       </c>
       <c r="Q11">
-        <v>22.150355182956</v>
+        <v>14.39747295451767</v>
       </c>
       <c r="R11">
-        <v>199.353196646604</v>
+        <v>129.577256590659</v>
       </c>
       <c r="S11">
-        <v>0.005213885638319884</v>
+        <v>0.003337937469696118</v>
       </c>
       <c r="T11">
-        <v>0.005507029705739697</v>
+        <v>0.003487256482801464</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5504869999999999</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N12">
-        <v>1.100974</v>
+        <v>0.651809</v>
       </c>
       <c r="O12">
-        <v>0.0727956449059631</v>
+        <v>0.03001200118140119</v>
       </c>
       <c r="P12">
-        <v>0.04973731661698388</v>
+        <v>0.03035425223765216</v>
       </c>
       <c r="Q12">
-        <v>67.95449393432699</v>
+        <v>35.60160993702656</v>
       </c>
       <c r="R12">
-        <v>407.7269636059619</v>
+        <v>320.414489433239</v>
       </c>
       <c r="S12">
-        <v>0.01599554305368932</v>
+        <v>0.008253944853080487</v>
       </c>
       <c r="T12">
-        <v>0.01126324803504138</v>
+        <v>0.008623176125648372</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.886464333333334</v>
+        <v>3.945699666666667</v>
       </c>
       <c r="N13">
-        <v>8.659393000000001</v>
+        <v>11.837099</v>
       </c>
       <c r="O13">
-        <v>0.3817020795097085</v>
+        <v>0.545029340147747</v>
       </c>
       <c r="P13">
-        <v>0.3911944981006764</v>
+        <v>0.5512447493177606</v>
       </c>
       <c r="Q13">
-        <v>356.3176297190511</v>
+        <v>646.5387581085366</v>
       </c>
       <c r="R13">
-        <v>3206.85866747146</v>
+        <v>5818.848822976829</v>
       </c>
       <c r="S13">
-        <v>0.08387221590477521</v>
+        <v>0.1498947734174493</v>
       </c>
       <c r="T13">
-        <v>0.08858782422827526</v>
+        <v>0.1566001535629858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>163.8590903333333</v>
+      </c>
+      <c r="H14">
+        <v>491.577271</v>
+      </c>
+      <c r="I14">
+        <v>0.2750214756820535</v>
+      </c>
+      <c r="J14">
+        <v>0.284084617144743</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>50.0323125</v>
-      </c>
-      <c r="H14">
-        <v>100.064625</v>
-      </c>
-      <c r="I14">
-        <v>0.08905802352064279</v>
-      </c>
-      <c r="J14">
-        <v>0.06118845668531954</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.945699666666667</v>
+        <v>2.656530666666667</v>
       </c>
       <c r="N14">
-        <v>11.837099</v>
+        <v>7.969592</v>
       </c>
       <c r="O14">
-        <v>0.5217739053606055</v>
+        <v>0.3669532094820499</v>
       </c>
       <c r="P14">
-        <v>0.534749722327306</v>
+        <v>0.3711378729032198</v>
       </c>
       <c r="Q14">
-        <v>197.4124787538125</v>
+        <v>435.2966984826036</v>
       </c>
       <c r="R14">
-        <v>1184.474872522875</v>
+        <v>3917.670286343432</v>
       </c>
       <c r="S14">
-        <v>0.04646815273606245</v>
+        <v>0.1009200131780191</v>
       </c>
       <c r="T14">
-        <v>0.03272051022211101</v>
+        <v>0.1054345605316255</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.0323125</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H15">
-        <v>100.064625</v>
+        <v>491.577271</v>
       </c>
       <c r="I15">
-        <v>0.08905802352064279</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J15">
-        <v>0.06118845668531954</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.179436</v>
+        <v>0.2448785</v>
       </c>
       <c r="N15">
-        <v>0.538308</v>
+        <v>0.489757</v>
       </c>
       <c r="O15">
-        <v>0.02372837022372263</v>
+        <v>0.03382567821846469</v>
       </c>
       <c r="P15">
-        <v>0.02431846295503378</v>
+        <v>0.02280761313997783</v>
       </c>
       <c r="Q15">
-        <v>8.977598025750002</v>
+        <v>40.12556825219117</v>
       </c>
       <c r="R15">
-        <v>53.8655881545</v>
+        <v>240.753409513147</v>
       </c>
       <c r="S15">
-        <v>0.00211320175349081</v>
+        <v>0.009302787939588452</v>
       </c>
       <c r="T15">
-        <v>0.001488009217177632</v>
+        <v>0.006479292046856011</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>50.0323125</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H16">
-        <v>100.064625</v>
+        <v>491.577271</v>
       </c>
       <c r="I16">
-        <v>0.08905802352064279</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J16">
-        <v>0.06118845668531954</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.5504869999999999</v>
+        <v>0.1750476666666667</v>
       </c>
       <c r="N16">
-        <v>1.100974</v>
+        <v>0.525143</v>
       </c>
       <c r="O16">
-        <v>0.0727956449059631</v>
+        <v>0.02417977097033727</v>
       </c>
       <c r="P16">
-        <v>0.04973731661698388</v>
+        <v>0.02445551240138963</v>
       </c>
       <c r="Q16">
-        <v>27.5421376111875</v>
+        <v>28.68315142497256</v>
       </c>
       <c r="R16">
-        <v>110.16855044475</v>
+        <v>258.148362824753</v>
       </c>
       <c r="S16">
-        <v>0.006483036256235622</v>
+        <v>0.006649956293916234</v>
       </c>
       <c r="T16">
-        <v>0.003043349643462342</v>
+        <v>0.006947434877627286</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H17">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I17">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J17">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>2.886464333333334</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N17">
-        <v>8.659393000000001</v>
+        <v>0.651809</v>
       </c>
       <c r="O17">
-        <v>0.3817020795097085</v>
+        <v>0.03001200118140119</v>
       </c>
       <c r="P17">
-        <v>0.3911944981006764</v>
+        <v>0.03035425223765216</v>
       </c>
       <c r="Q17">
-        <v>144.4164855454376</v>
+        <v>12.3895440821285</v>
       </c>
       <c r="R17">
-        <v>866.4989132726251</v>
+        <v>74.337264492771</v>
       </c>
       <c r="S17">
-        <v>0.03399363277485389</v>
+        <v>0.002872415426987269</v>
       </c>
       <c r="T17">
-        <v>0.02393658760256855</v>
+        <v>0.00200060654421071</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>154.3429766666667</v>
+        <v>57.0238095</v>
       </c>
       <c r="H18">
-        <v>463.02893</v>
+        <v>114.047619</v>
       </c>
       <c r="I18">
-        <v>0.2747320633285943</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J18">
-        <v>0.2831372788071194</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,27 +1556,27 @@
         <v>11.837099</v>
       </c>
       <c r="O18">
-        <v>0.5217739053606055</v>
+        <v>0.545029340147747</v>
       </c>
       <c r="P18">
-        <v>0.534749722327306</v>
+        <v>0.5512447493177606</v>
       </c>
       <c r="Q18">
-        <v>608.9910315860077</v>
+        <v>224.9988261362135</v>
       </c>
       <c r="R18">
-        <v>5480.91928427407</v>
+        <v>1349.992956817281</v>
       </c>
       <c r="S18">
-        <v>0.1433480216107378</v>
+        <v>0.05216415511043199</v>
       </c>
       <c r="T18">
-        <v>0.1514075812226161</v>
+        <v>0.03633177468226129</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>154.3429766666667</v>
+        <v>57.0238095</v>
       </c>
       <c r="H19">
-        <v>463.02893</v>
+        <v>114.047619</v>
       </c>
       <c r="I19">
-        <v>0.2747320633285943</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J19">
-        <v>0.2831372788071194</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.179436</v>
+        <v>2.656530666666667</v>
       </c>
       <c r="N19">
-        <v>0.538308</v>
+        <v>7.969592</v>
       </c>
       <c r="O19">
-        <v>0.02372837022372263</v>
+        <v>0.3669532094820499</v>
       </c>
       <c r="P19">
-        <v>0.02431846295503378</v>
+        <v>0.3711378729032198</v>
       </c>
       <c r="Q19">
-        <v>27.69468636116</v>
+        <v>151.485498666908</v>
       </c>
       <c r="R19">
-        <v>249.25217725044</v>
+        <v>908.9129920014481</v>
       </c>
       <c r="S19">
-        <v>0.006518944110988095</v>
+        <v>0.03512068567263466</v>
       </c>
       <c r="T19">
-        <v>0.006885463425860006</v>
+        <v>0.02446118097462496</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>154.3429766666667</v>
+        <v>57.0238095</v>
       </c>
       <c r="H20">
-        <v>463.02893</v>
+        <v>114.047619</v>
       </c>
       <c r="I20">
-        <v>0.2747320633285943</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J20">
-        <v>0.2831372788071194</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,33 +1674,33 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.5504869999999999</v>
+        <v>0.2448785</v>
       </c>
       <c r="N20">
-        <v>1.100974</v>
+        <v>0.489757</v>
       </c>
       <c r="O20">
-        <v>0.0727956449059631</v>
+        <v>0.03382567821846469</v>
       </c>
       <c r="P20">
-        <v>0.04973731661698388</v>
+        <v>0.02280761313997783</v>
       </c>
       <c r="Q20">
-        <v>84.96380219630332</v>
+        <v>13.96390493464575</v>
       </c>
       <c r="R20">
-        <v>509.7828131778199</v>
+        <v>55.855619738583</v>
       </c>
       <c r="S20">
-        <v>0.01999929772635092</v>
+        <v>0.003237418236649855</v>
       </c>
       <c r="T20">
-        <v>0.01408248848210094</v>
+        <v>0.001503218058162751</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>154.3429766666667</v>
+        <v>57.0238095</v>
       </c>
       <c r="H21">
-        <v>463.02893</v>
+        <v>114.047619</v>
       </c>
       <c r="I21">
-        <v>0.2747320633285943</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J21">
-        <v>0.2831372788071194</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>2.886464333333334</v>
+        <v>0.1750476666666667</v>
       </c>
       <c r="N21">
-        <v>8.659393000000001</v>
+        <v>0.525143</v>
       </c>
       <c r="O21">
-        <v>0.3817020795097085</v>
+        <v>0.02417977097033727</v>
       </c>
       <c r="P21">
-        <v>0.3911944981006764</v>
+        <v>0.02445551240138963</v>
       </c>
       <c r="Q21">
-        <v>445.5054972488323</v>
+        <v>9.9818847974195</v>
       </c>
       <c r="R21">
-        <v>4009.549475239491</v>
+        <v>59.891308784517</v>
       </c>
       <c r="S21">
-        <v>0.1048657998805174</v>
+        <v>0.00231421912642258</v>
       </c>
       <c r="T21">
-        <v>0.1107617456765423</v>
+        <v>0.001611828806362669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H22">
+        <v>443.6689</v>
+      </c>
+      <c r="I22">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J22">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2172696666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.651809</v>
+      </c>
+      <c r="O22">
+        <v>0.03001200118140119</v>
+      </c>
+      <c r="P22">
+        <v>0.03035425223765216</v>
+      </c>
+      <c r="Q22">
+        <v>32.13193133778889</v>
+      </c>
+      <c r="R22">
+        <v>289.1873820401</v>
+      </c>
+      <c r="S22">
+        <v>0.007449527977925734</v>
+      </c>
+      <c r="T22">
+        <v>0.007782774533879283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H23">
+        <v>443.6689</v>
+      </c>
+      <c r="I23">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J23">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.945699666666667</v>
+      </c>
+      <c r="N23">
+        <v>11.837099</v>
+      </c>
+      <c r="O23">
+        <v>0.545029340147747</v>
+      </c>
+      <c r="P23">
+        <v>0.5512447493177606</v>
+      </c>
+      <c r="Q23">
+        <v>583.5280769467889</v>
+      </c>
+      <c r="R23">
+        <v>5251.7526925211</v>
+      </c>
+      <c r="S23">
+        <v>0.1352862574434792</v>
+      </c>
+      <c r="T23">
+        <v>0.1413381414681417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H24">
+        <v>443.6689</v>
+      </c>
+      <c r="I24">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J24">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>2.656530666666667</v>
+      </c>
+      <c r="N24">
+        <v>7.969592</v>
+      </c>
+      <c r="O24">
+        <v>0.3669532094820499</v>
+      </c>
+      <c r="P24">
+        <v>0.3711378729032198</v>
+      </c>
+      <c r="Q24">
+        <v>392.8733462320889</v>
+      </c>
+      <c r="R24">
+        <v>3535.8601160888</v>
+      </c>
+      <c r="S24">
+        <v>0.09108450263290797</v>
+      </c>
+      <c r="T24">
+        <v>0.09515906908773594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H25">
+        <v>443.6689</v>
+      </c>
+      <c r="I25">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J25">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.2448785</v>
+      </c>
+      <c r="N25">
+        <v>0.489757</v>
+      </c>
+      <c r="O25">
+        <v>0.03382567821846469</v>
+      </c>
+      <c r="P25">
+        <v>0.02280761313997783</v>
+      </c>
+      <c r="Q25">
+        <v>36.21499157621667</v>
+      </c>
+      <c r="R25">
+        <v>217.2899494573</v>
+      </c>
+      <c r="S25">
+        <v>0.008396152417084546</v>
+      </c>
+      <c r="T25">
+        <v>0.005847830127213825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H26">
+        <v>443.6689</v>
+      </c>
+      <c r="I26">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J26">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.1750476666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.525143</v>
+      </c>
+      <c r="O26">
+        <v>0.02417977097033727</v>
+      </c>
+      <c r="P26">
+        <v>0.02445551240138963</v>
+      </c>
+      <c r="Q26">
+        <v>25.88773523918889</v>
+      </c>
+      <c r="R26">
+        <v>232.9896171527</v>
+      </c>
+      <c r="S26">
+        <v>0.00600186169707975</v>
+      </c>
+      <c r="T26">
+        <v>0.006270348471783864</v>
       </c>
     </row>
   </sheetData>
